--- a/Economics/ACF - PACF/First Difference/Ind_prod residuals - values.xlsx
+++ b/Economics/ACF - PACF/First Difference/Ind_prod residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0004917977117837347</v>
+        <v>-0.01511857932156939</v>
       </c>
       <c r="C3">
-        <v>-0.0004967653654381768</v>
+        <v>-0.01527129224400951</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.03163146336259142</v>
+        <v>0.02060110738051879</v>
       </c>
       <c r="C4">
-        <v>-0.03227725817229113</v>
+        <v>0.02079317500214015</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.226423269499356</v>
+        <v>-0.0267758406757182</v>
       </c>
       <c r="C5">
-        <v>-0.2337021704215155</v>
+        <v>-0.02699003089862417</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.002998941863351216</v>
+        <v>-0.001889926387515306</v>
       </c>
       <c r="C6">
-        <v>8.643165350136626E-05</v>
+        <v>-0.00321123205792057</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.07532153362433529</v>
+        <v>-0.05225364119400747</v>
       </c>
       <c r="C7">
-        <v>-0.09992134898046133</v>
+        <v>-0.05402422958306475</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09235606820986478</v>
+        <v>0.04622741963089452</v>
       </c>
       <c r="C8">
-        <v>0.04535817362642503</v>
+        <v>0.0471563040669337</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05204747965633132</v>
+        <v>-0.06153935885422421</v>
       </c>
       <c r="C9">
-        <v>0.0534055608037342</v>
+        <v>-0.06327658662319638</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.04050955853475439</v>
+        <v>-0.04011663697986344</v>
       </c>
       <c r="C10">
-        <v>-0.08360244895611166</v>
+        <v>-0.05028348755213862</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.08865857215002103</v>
+        <v>-0.1006888149474769</v>
       </c>
       <c r="C11">
-        <v>-0.06384885028417206</v>
+        <v>-0.1086409889386549</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.09318281765877887</v>
+        <v>0.05809759699388498</v>
       </c>
       <c r="C12">
-        <v>0.12275179957835</v>
+        <v>0.05847882898633087</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1095003662287359</v>
+        <v>-0.07223430064217834</v>
       </c>
       <c r="C13">
-        <v>-0.1607739879019793</v>
+        <v>-0.07624296635322393</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.0347335956561075</v>
+        <v>-0.04778351192635582</v>
       </c>
       <c r="C14">
-        <v>-0.06461459545944466</v>
+        <v>-0.07514851618679329</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.04901427393510023</v>
+        <v>-0.04745069376320123</v>
       </c>
       <c r="C15">
-        <v>-0.0349167454452248</v>
+        <v>-0.0544898431766714</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.003492815652078704</v>
+        <v>0.00593020264355037</v>
       </c>
       <c r="C16">
-        <v>-0.08700094548297048</v>
+        <v>-0.007208356214055443</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.001860754961933643</v>
+        <v>-0.02339863980930562</v>
       </c>
       <c r="C17">
-        <v>0.01558014950367872</v>
+        <v>-0.0232247006107703</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.05215438122780865</v>
+        <v>0.03670920482489053</v>
       </c>
       <c r="C18">
-        <v>0.007780498724599472</v>
+        <v>0.007604070754898129</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.03392470415163241</v>
+        <v>-0.0271089383265342</v>
       </c>
       <c r="C19">
-        <v>-0.09183494689307077</v>
+        <v>-0.03844995420269153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.00706583473072209</v>
+        <v>-0.01577255409429359</v>
       </c>
       <c r="C20">
-        <v>0.03027055201330584</v>
+        <v>-0.04003247227892888</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.08072306541998889</v>
+        <v>-0.0565906077081807</v>
       </c>
       <c r="C21">
-        <v>-0.09892658027346127</v>
+        <v>-0.07219601091966432</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.007515128161892687</v>
+        <v>0.00422875493993111</v>
       </c>
       <c r="C22">
-        <v>-0.06278009467127742</v>
+        <v>-0.03687812570723278</v>
       </c>
     </row>
   </sheetData>
